--- a/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
+++ b/InputData/trans/VBDR/Veh Buyer Discount Rate.xlsx
@@ -1,48 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Revisão\trans\VBDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\VBDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091326E4-0081-4D0B-9283-77AC7DA524F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D03AF9-A242-4BBC-BCFA-62936AEA3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data from MOP" sheetId="3" r:id="rId2"/>
-    <sheet name="VBDR" sheetId="2" r:id="rId3"/>
+    <sheet name="VBDR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>VBDR Vehicle Buyer Discount Rate</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>The implied discount rate is sensitive to numerous assumptions</t>
+  </si>
+  <si>
+    <t>the underlying studies might make, such as what lifetime</t>
+  </si>
+  <si>
+    <t>or future fuel price consumers are expecting.  Accordingly,</t>
+  </si>
+  <si>
+    <t>there is no consensus on what a reasonable discount rate</t>
+  </si>
+  <si>
+    <t>might be.</t>
+  </si>
+  <si>
+    <t>We use this rate for all vehicle types, since uncertainty</t>
+  </si>
+  <si>
+    <t>in the rate itself overwhelms any possible differences</t>
+  </si>
+  <si>
+    <t>in behavior between (say) an individual car-buyer and</t>
+  </si>
+  <si>
+    <t>a company that purchases trucks.</t>
+  </si>
+  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -64,47 +77,47 @@
     <t>Discount Rate (dimensionless)</t>
   </si>
   <si>
-    <t>Page 287 (see note below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it take into account social costs and benefits, which reflect the point of view of society. </t>
-  </si>
-  <si>
-    <t>So, according to them, this rate assumes that market efficiency is improved through policies and measures to overcome possible barriers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also the rate of 12% was considered in their calculations, but the rate of 8% seem adequated for us because </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mitigation Option Project - MOP </t>
-  </si>
-  <si>
-    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
-  </si>
-  <si>
-    <t>Report: "Greenhouse gas mitigation options in key sectors in Brazil"</t>
-  </si>
-  <si>
-    <t>Version: "Sector modeling of low carbon options for the transport sector"</t>
-  </si>
-  <si>
-    <t>https://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/Setor-Transportes.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We choose to use the rate of 8% because MOP (Mitigation Options Project) use this rate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">to calculate the Marginal Cost of Abatment of different measures in the transport sector. </t>
-  </si>
-  <si>
-    <t>Discount Rate (dimensionless) - from MOP, page 287</t>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>https://media.rff.org/documents/wp_21-27.pdf</t>
+  </si>
+  <si>
+    <t>Resources for the Future</t>
+  </si>
+  <si>
+    <t>How Much Do Consumers Value Fuel Cost Savings? Evidence from the Passenger Vehicle Leasing Market</t>
+  </si>
+  <si>
+    <t>page 23</t>
+  </si>
+  <si>
+    <t>Vehicle buyer discount rates vary tremendously by study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use a value of 15%, as it falls between values of 12% and </t>
+  </si>
+  <si>
+    <t>greater than 17% in the studies cited above.</t>
+  </si>
+  <si>
+    <t>Leard et al.</t>
+  </si>
+  <si>
+    <t>How Much Do Consumers Value Fuel Economy and Performance? Evidence from Technology Adoption</t>
+  </si>
+  <si>
+    <t>PDF page 6</t>
+  </si>
+  <si>
+    <t>https://www.rff.org/publications/reports/how-much-do-consumers-value-fuel-economy-and-performance-evidence-from-technology-adoption/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +129,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,23 +151,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,165 +498,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{A247B396-C793-46A3-A2C9-AF2B6F747D42}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78112C3C-0AC9-4AB6-AC29-9207104A3605}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.08</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -665,71 +646,65 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <f>'Data from MOP'!B2</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <f>'Data from MOP'!B3</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <f>'Data from MOP'!B4</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <f>'Data from MOP'!B5</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <f>'Data from MOP'!B6</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <f>'Data from MOP'!B7</f>
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
